--- a/medicine/Psychotrope/John_Houlding/John_Houlding.xlsx
+++ b/medicine/Psychotrope/John_Houlding/John_Houlding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Houlding (né en août 1833 à Liverpool - mort le 17 mars 1902 à Nice[1]) était un homme d'affaires de la fin du XIXe siècle. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Houlding (né en août 1833 à Liverpool - mort le 17 mars 1902 à Nice) était un homme d'affaires de la fin du XIXe siècle. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possédait une brasserie qu'il a quitté pour une somme d'argent importante, qui le laissa dans une situation financière confortable pour le reste de sa vie. Il a été élu au conseil municipal de Liverpool en tant que conservateur, représentant des quartiers d'Everton, avant d'être nommé maire en 1897. Sa contribution majeure, cependant, est de fonder le Liverpool Football Club en 1892. Houlding a également été membre de l'Ordre orangiste.
 En 1882, un arrêt force Everton à jouer leurs matchs sur un terrain clos, après avoir joué sur le parc public du Parc Stanley. Une réunion s'est tenue au Sandon Hotel à Everton, détenu par Houlding, et a conduit Everton FC à louer un terrain à Priory Road. Lorsque le propriétaire de ce domaine leur a demandé de partir, Houlding obtenu un nouveau terrain à Anfield Road, en payant une rente faible à John Orrell (en), un autre brasseur. Le premier match de football à Anfield a été le 28 septembre 1884 lorsque Everton a battu Earlstown 5-0. 
@@ -547,7 +561,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Archives départementales des Alpes-Maritimes, commune de Nice, année 1902, acte de décès no 871, vue 221/831
